--- a/background/ftpdir/气象室/2018/01/201801.xlsx
+++ b/background/ftpdir/气象室/2018/01/201801.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git仓库\RegistrationSystem\background\ftpdir\气候室\2018\01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git仓库\RegistrationSystem\background\ftpdir\气象室\2018\01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="17">
   <si>
     <t>年  月  日</t>
   </si>
@@ -201,18 +201,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -566,264 +566,266 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>43101</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>43102</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>43103</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>43104</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>43105</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>43106</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>43107</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>43108</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>43109</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>43110</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>43111</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>43112</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>43113</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>43114</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>43115</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>43116</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>43117</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>43118</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>43119</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>43120</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>43121</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>43122</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>43123</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>43124</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>43125</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>43126</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>43127</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>43128</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>43129</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A32" s="5">
+      <c r="A32" s="3">
         <v>43130</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A33" s="5">
+      <c r="A33" s="3">
         <v>43131</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -831,7 +833,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
